--- a/resources/Book1.xlsx
+++ b/resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sumerge\Training\Selenium Training\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEF18F-AD52-4E04-9391-5E380A0E0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F0169-4C99-4126-A0C6-5361E3B588F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11670" windowHeight="7875" xr2:uid="{6D3A105F-100C-4B99-B7A7-219FDE3CCBCE}"/>
+    <workbookView xWindow="5130" yWindow="3045" windowWidth="11670" windowHeight="7875" xr2:uid="{6D3A105F-100C-4B99-B7A7-219FDE3CCBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Book1.xlsx
+++ b/resources/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sumerge\Training\Selenium Training\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F0169-4C99-4126-A0C6-5361E3B588F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06552E28-1CFC-450E-AA01-323504D9CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3045" windowWidth="11670" windowHeight="7875" xr2:uid="{6D3A105F-100C-4B99-B7A7-219FDE3CCBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D3A105F-100C-4B99-B7A7-219FDE3CCBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>test</t>
   </si>
@@ -96,12 +96,6 @@
     <t>test second</t>
   </si>
   <si>
-    <t>valid122@gmail.com</t>
-  </si>
-  <si>
-    <t>valid211@gmail.com</t>
-  </si>
-  <si>
     <t>my add4</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>test fourth</t>
   </si>
   <si>
-    <t>invalid2@gmail.com</t>
-  </si>
-  <si>
     <t>my add3</t>
   </si>
   <si>
@@ -129,7 +120,46 @@
     <t>test third</t>
   </si>
   <si>
-    <t>invalid1@gmail.com</t>
+    <t>test fifth</t>
+  </si>
+  <si>
+    <t>test sixth</t>
+  </si>
+  <si>
+    <t>Address5</t>
+  </si>
+  <si>
+    <t>Address6</t>
+  </si>
+  <si>
+    <t>test city5</t>
+  </si>
+  <si>
+    <t>test city6</t>
+  </si>
+  <si>
+    <t>my add5</t>
+  </si>
+  <si>
+    <t>my add6</t>
+  </si>
+  <si>
+    <t>valid122new1@gmail.com</t>
+  </si>
+  <si>
+    <t>valid211new1@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid1new1@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid2new1@gmail.com</t>
+  </si>
+  <si>
+    <t>signuptest11@gmail.com</t>
+  </si>
+  <si>
+    <t>signuptest21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -492,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80EA9B-336B-4D4D-B83E-07093944906D}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +572,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -574,7 +604,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -606,25 +636,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>10100</v>
@@ -638,25 +668,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>10100</v>
@@ -666,6 +696,70 @@
       </c>
       <c r="J5">
         <v>40202020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>10100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>50202020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>10100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>60202020</v>
       </c>
     </row>
   </sheetData>
@@ -674,8 +768,10 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{CF349BCF-E29E-4ECF-91BE-729B0E4C6431}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{99DAA3DA-92E7-466D-BCD8-B6A57B4114BF}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{58531ECB-B267-4434-BC11-77640583D536}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{083EC0D6-0CAC-4009-9504-FA61E4A14325}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{50F42197-B2C5-43CA-933D-9515817B373B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>